--- a/ttldatabase.xlsx
+++ b/ttldatabase.xlsx
@@ -19,7 +19,7 @@
     <t>堀之内皓隆</t>
   </si>
   <si>
-    <t>hoi</t>
+    <t>konnitiha</t>
   </si>
 </sst>
 </file>
